--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,525 +453,1060 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>252</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>18</v>
+      <c r="C4" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>54</v>
+      <c r="C5" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>24</v>
+      <c r="C7" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>12</v>
+      <c r="C9" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>24</v>
+      <c r="C11" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>24</v>
+      <c r="C13" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="B14" t="n">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>24</v>
+      <c r="C15" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C18" t="n">
-        <v>252</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>192</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
-      </c>
-      <c r="C23" t="n">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
-      </c>
-      <c r="C24" t="n">
-        <v>96</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45501</v>
       </c>
       <c r="B27" t="n">
         <v>16</v>
       </c>
-      <c r="C27" t="n">
-        <v>420</v>
+      <c r="C27" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45509</v>
+        <v>45508</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
-      </c>
-      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
-      </c>
-      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B30" t="n">
-        <v>152</v>
-      </c>
-      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
-      </c>
-      <c r="C31" t="n">
+        <v>152</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
-      </c>
-      <c r="C32" t="n">
-        <v>204</v>
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
-      </c>
-      <c r="C34" t="n">
-        <v>348</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45558</v>
+        <v>45557</v>
       </c>
       <c r="B35" t="n">
         <v>21</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
-      </c>
-      <c r="C36" t="n">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
-      </c>
-      <c r="C37" t="n">
-        <v>648</v>
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
-      </c>
-      <c r="C38" t="n">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
-      </c>
-      <c r="C39" t="n">
-        <v>444</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
-      </c>
-      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B42" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B43" t="n">
-        <v>60</v>
-      </c>
-      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B44" t="n">
-        <v>88</v>
-      </c>
-      <c r="C44" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B45" t="n">
-        <v>38</v>
-      </c>
-      <c r="C45" t="n">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
-      </c>
-      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
-      </c>
-      <c r="C47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B48" t="n">
-        <v>40</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-92.85714285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-55.55555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B11" t="n">
+        <v>252</v>
+      </c>
+      <c r="C11" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B12" t="n">
+        <v>192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-23.80952380952381</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-81.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B18" t="n">
+        <v>420</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B19" t="n">
+        <v>204</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-51.42857142857142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B20" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-70.58823529411764</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B21" t="n">
+        <v>348</v>
+      </c>
+      <c r="C21" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B22" t="n">
+        <v>648</v>
+      </c>
+      <c r="C22" t="n">
+        <v>86.20689655172413</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-79.62962962962963</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B24" t="n">
+        <v>444</v>
+      </c>
+      <c r="C24" t="n">
+        <v>236.3636363636364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3360</v>
+      </c>
+      <c r="B2" t="n">
+        <v>146.0869565217391</v>
+      </c>
+      <c r="C2" t="n">
+        <v>648</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>314.0632411067194</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,684 +453,524 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45424</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45431</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45438</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45445</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45452</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45459</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45466</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45473</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45480</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45487</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45494</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45501</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>16</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45508</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45515</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45522</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D30" t="n">
+        <v>152</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45529</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D31" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45536</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C32" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45543</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45550</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45557</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>21</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45564</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45571</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45578</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45585</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>444</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45592</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45599</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45606</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D42" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45613</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D43" t="n">
+        <v>60</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45620</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D44" t="n">
+        <v>88</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45627</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D45" t="n">
+        <v>38</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45634</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D46" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45641</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D47" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45648</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B49" t="n">
         <v>40</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1172,7 +1012,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>252</v>
@@ -1183,7 +1023,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -1194,7 +1034,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>54</v>
@@ -1205,7 +1045,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
@@ -1216,7 +1056,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1227,7 +1067,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
@@ -1238,7 +1078,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>24</v>
@@ -1249,7 +1089,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>24</v>
@@ -1260,7 +1100,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>24</v>
@@ -1271,7 +1111,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>252</v>
@@ -1282,7 +1122,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>192</v>
@@ -1293,7 +1133,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>36</v>
@@ -1304,7 +1144,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -1315,7 +1155,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>48</v>
@@ -1326,7 +1166,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>96</v>
@@ -1337,7 +1177,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
@@ -1348,7 +1188,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>420</v>
@@ -1359,7 +1199,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>204</v>
@@ -1370,7 +1210,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>60</v>
@@ -1381,7 +1221,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>348</v>
@@ -1392,7 +1232,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>648</v>
@@ -1403,7 +1243,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>132</v>
@@ -1414,7 +1254,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>444</v>

--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,14 @@
       </c>
       <c r="B48" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -17505,7 +17513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18264,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -18275,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -18286,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -18308,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -18451,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -18473,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -18495,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
@@ -18506,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
@@ -18880,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -18891,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
@@ -18902,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127">
@@ -18913,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -18924,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
@@ -18935,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -18946,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -18957,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132">
@@ -19023,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138">
@@ -19034,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
@@ -19573,6 +19581,17 @@
         <v>40</v>
       </c>
       <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29</v>
+      </c>
+      <c r="C188" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,14 @@
       </c>
       <c r="B49" t="n">
         <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -17513,7 +17521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18646,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -18657,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -18899,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -18921,7 +18929,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128">
@@ -19108,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -19119,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -19141,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -19152,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -19163,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -19174,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
@@ -19185,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -19196,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
@@ -19284,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>306</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -19317,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164">
@@ -19372,7 +19380,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169">
@@ -19383,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -19394,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -19405,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -19438,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -19592,6 +19600,17 @@
         <v>29</v>
       </c>
       <c r="C188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B189" t="n">
+        <v>31</v>
+      </c>
+      <c r="C189" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,14 @@
       </c>
       <c r="B50" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
@@ -17521,7 +17529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18654,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -18665,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -18896,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
@@ -18929,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -19039,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
@@ -19061,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140">
@@ -19270,7 +19278,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>306</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -19292,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161">
@@ -19358,7 +19366,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -19402,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
@@ -19435,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -19446,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -19611,6 +19619,17 @@
         <v>31</v>
       </c>
       <c r="C189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C190" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTVFWHM_sales_po_comparison.xlsx
@@ -850,7 +850,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>-6</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -19627,7 +19627,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B190" t="n">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
